--- a/nwa_projekt/Nutzwertanalyse.xlsx
+++ b/nwa_projekt/Nutzwertanalyse.xlsx
@@ -10,11 +10,7 @@
   <sheets>
     <sheet name="Nutzwertanalyse" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
-    <definedName function="false" hidden="false" name="Kalenderjahr" vbProcedure="false">[2]Monatskalender!$K$2</definedName>
     <definedName function="false" hidden="false" name="Tabelle_Feiertage" vbProcedure="false">#REF!</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -32,7 +28,7 @@
     <author>Unknown Author</author>
   </authors>
   <commentList>
-    <comment ref="D17" authorId="0">
+    <comment ref="D16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -113,10 +109,10 @@
     <t xml:space="preserve">Erweiterbarkeit/Skalierbarkeit</t>
   </si>
   <si>
-    <t xml:space="preserve">Homeoffice Fähhigkeit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Softwarekompabilität</t>
+    <t xml:space="preserve">Homeoffice Fähigkeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ergonomie</t>
   </si>
   <si>
     <t xml:space="preserve">Support &amp; Garantie</t>
@@ -125,7 +121,7 @@
     <t xml:space="preserve">Verfügbarkeit</t>
   </si>
   <si>
-    <t xml:space="preserve">Ergonomie</t>
+    <t xml:space="preserve">Softwarekompatibilität</t>
   </si>
   <si>
     <t xml:space="preserve">Summe</t>
@@ -732,23 +728,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Monatskalender"/>
-      <sheetName val="Stammdaten Monate"/>
-      <sheetName val="Info"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
   <a:themeElements>
@@ -926,13 +905,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="B1:N29"/>
+  <dimension ref="B1:N1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.61328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.72"/>
@@ -1380,178 +1359,147 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="21" t="n">
-        <v>10</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="25" t="n">
-        <f aca="false">$D15*E15</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="25" t="n">
-        <f aca="false">$D15*G15</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="25" t="n">
-        <f aca="false">$D15*I15</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="24"/>
-      <c r="L15" s="25" t="n">
-        <f aca="false">$D15*K15</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="24"/>
-      <c r="N15" s="25" t="n">
-        <f aca="false">$D15*M15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="27"/>
-    </row>
-    <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="28"/>
-      <c r="C17" s="29" t="s">
+    <row r="15" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="27"/>
+    </row>
+    <row r="16" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="28"/>
+      <c r="C16" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="23" t="n">
-        <f aca="false">SUM(D6:D15)</f>
+      <c r="D16" s="23" t="n">
+        <f aca="false">SUM(D6:D14)</f>
         <v>1</v>
       </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="25" t="n">
+        <f aca="false">SUM(F6:F14)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="25" t="n">
+        <f aca="false">SUM(H6:H14)</f>
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="25" t="n">
+        <f aca="false">SUM(J6:J14)</f>
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="25" t="n">
+        <f aca="false">SUM(L6:L14)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M16" s="11"/>
+      <c r="N16" s="25" t="n">
+        <f aca="false">SUM(N6:N14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="11"/>
-      <c r="F17" s="25" t="n">
-        <f aca="false">SUM(F6:F15)</f>
-        <v>0</v>
-      </c>
+      <c r="F17" s="27"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="25" t="n">
-        <f aca="false">SUM(H6:H15)</f>
-        <v>0.5</v>
-      </c>
+      <c r="H17" s="27"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="25" t="n">
-        <f aca="false">SUM(J6:J15)</f>
-        <v>0.5</v>
-      </c>
+      <c r="J17" s="27"/>
       <c r="K17" s="11"/>
-      <c r="L17" s="25" t="n">
-        <f aca="false">SUM(L6:L15)</f>
-        <v>0.5</v>
-      </c>
+      <c r="L17" s="27"/>
       <c r="M17" s="11"/>
-      <c r="N17" s="25" t="n">
-        <f aca="false">SUM(N6:N15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="27"/>
-    </row>
-    <row r="19" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="28"/>
-      <c r="C19" s="29" t="s">
+      <c r="N17" s="27"/>
+    </row>
+    <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="28"/>
+      <c r="C18" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="31" t="n">
-        <f aca="false">RANK(F17,($F17~$H17~$J17~$L17~N17))</f>
+      <c r="D18" s="21"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="31" t="n">
+        <f aca="false">RANK(F16,($F16~$H16~$J16~$L16~N16))</f>
         <v>4</v>
       </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="31" t="n">
-        <f aca="false">RANK(H17,($F17~$H17~$J17~$L17~N17))</f>
+      <c r="G18" s="32"/>
+      <c r="H18" s="31" t="n">
+        <f aca="false">RANK(H16,($F16~$H16~$J16~$L16~N16))</f>
         <v>1</v>
       </c>
-      <c r="I19" s="32"/>
-      <c r="J19" s="31" t="n">
-        <f aca="false">RANK(J17,($F17~$H17~$J17~$L17~N17))</f>
+      <c r="I18" s="32"/>
+      <c r="J18" s="31" t="n">
+        <f aca="false">RANK(J16,($F16~$H16~$J16~$L16~N16))</f>
         <v>1</v>
       </c>
-      <c r="K19" s="32"/>
-      <c r="L19" s="31" t="n">
-        <f aca="false">RANK(L17,($F17~$H17~$J17~$L17~N17))</f>
+      <c r="K18" s="32"/>
+      <c r="L18" s="31" t="n">
+        <f aca="false">RANK(L16,($F16~$H16~$J16~$L16~N16))</f>
         <v>1</v>
       </c>
-      <c r="M19" s="32"/>
-      <c r="N19" s="31" t="n">
-        <f aca="false">RANK(N17,($F17~$H17~$J17~$L17~N17))</f>
+      <c r="M18" s="32"/>
+      <c r="N18" s="31" t="n">
+        <f aca="false">RANK(N16,($F16~$H16~$J16~$L16~N16))</f>
         <v>4</v>
       </c>
     </row>
+    <row r="20" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="K20" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" s="34"/>
+    </row>
     <row r="21" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="K21" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="L21" s="34"/>
+      <c r="K21" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" s="35"/>
     </row>
     <row r="22" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K22" s="35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L22" s="35"/>
     </row>
     <row r="23" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K23" s="35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L23" s="35"/>
     </row>
     <row r="24" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K24" s="35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L24" s="35"/>
     </row>
     <row r="25" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K25" s="35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L25" s="35"/>
     </row>
-    <row r="26" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K26" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="L26" s="35"/>
-    </row>
+    <row r="26" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="27" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="28" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="18">
     <mergeCell ref="B2:C2"/>
@@ -1566,12 +1514,12 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
+    <mergeCell ref="K20:L20"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.39375" right="0.39375" top="0.39375" bottom="0.39375" header="0.511811023622047" footer="0.511811023622047"/>

--- a/nwa_projekt/Nutzwertanalyse.xlsx
+++ b/nwa_projekt/Nutzwertanalyse.xlsx
@@ -10,7 +10,11 @@
   <sheets>
     <sheet name="Nutzwertanalyse" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <definedNames>
+    <definedName function="false" hidden="false" name="Kalenderjahr" vbProcedure="false">[1]Monatskalender!$K$2</definedName>
     <definedName function="false" hidden="false" name="Tabelle_Feiertage" vbProcedure="false">#REF!</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -112,7 +116,7 @@
     <t xml:space="preserve">Homeoffice Fähigkeit</t>
   </si>
   <si>
-    <t xml:space="preserve">Ergonomie</t>
+    <t xml:space="preserve">Benutzerfreundlichkeit</t>
   </si>
   <si>
     <t xml:space="preserve">Support &amp; Garantie</t>
@@ -121,7 +125,7 @@
     <t xml:space="preserve">Verfügbarkeit</t>
   </si>
   <si>
-    <t xml:space="preserve">Softwarekompatibilität</t>
+    <t xml:space="preserve">Software Kompatibilität</t>
   </si>
   <si>
     <t xml:space="preserve">Summe</t>
@@ -728,6 +732,19 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Monatskalender"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
   <a:themeElements>
@@ -908,16 +925,16 @@
   <dimension ref="B1:N1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.61328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="12.72"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="1" width="10.61"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="1" width="10.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1039,30 +1056,40 @@
       <c r="D6" s="23" t="n">
         <v>0.2</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="E6" s="24" t="n">
+        <v>4</v>
+      </c>
       <c r="F6" s="25" t="n">
         <f aca="false">$D6*E6</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="24"/>
+        <v>0.8</v>
+      </c>
+      <c r="G6" s="24" t="n">
+        <v>4</v>
+      </c>
       <c r="H6" s="25" t="n">
         <f aca="false">$D6*G6</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="24"/>
+        <v>0.8</v>
+      </c>
+      <c r="I6" s="24" t="n">
+        <v>5</v>
+      </c>
       <c r="J6" s="25" t="n">
         <f aca="false">$D6*I6</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="24"/>
+        <v>1</v>
+      </c>
+      <c r="K6" s="24" t="n">
+        <v>4</v>
+      </c>
       <c r="L6" s="25" t="n">
         <f aca="false">$D6*K6</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="24"/>
+        <v>0.8</v>
+      </c>
+      <c r="M6" s="24" t="n">
+        <v>5</v>
+      </c>
       <c r="N6" s="25" t="n">
         <f aca="false">$D6*M6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1075,30 +1102,40 @@
       <c r="D7" s="23" t="n">
         <v>0.15</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="24" t="n">
+        <v>2</v>
+      </c>
       <c r="F7" s="25" t="n">
         <f aca="false">$D7*E7</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="24"/>
+        <v>0.3</v>
+      </c>
+      <c r="G7" s="24" t="n">
+        <v>4</v>
+      </c>
       <c r="H7" s="25" t="n">
         <f aca="false">$D7*G7</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="24"/>
+        <v>0.6</v>
+      </c>
+      <c r="I7" s="24" t="n">
+        <v>3</v>
+      </c>
       <c r="J7" s="25" t="n">
         <f aca="false">$D7*I7</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="24"/>
+        <v>0.45</v>
+      </c>
+      <c r="K7" s="24" t="n">
+        <v>5</v>
+      </c>
       <c r="L7" s="25" t="n">
         <f aca="false">$D7*K7</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="24"/>
+        <v>0.75</v>
+      </c>
+      <c r="M7" s="24" t="n">
+        <v>3</v>
+      </c>
       <c r="N7" s="25" t="n">
         <f aca="false">$D7*M7</f>
-        <v>0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1111,10 +1148,12 @@
       <c r="D8" s="23" t="n">
         <v>0.1</v>
       </c>
-      <c r="E8" s="24"/>
+      <c r="E8" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="F8" s="25" t="n">
         <f aca="false">$D8*E8</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G8" s="24" t="n">
         <v>5</v>
@@ -1137,10 +1176,12 @@
         <f aca="false">$D8*K8</f>
         <v>0.5</v>
       </c>
-      <c r="M8" s="24"/>
+      <c r="M8" s="24" t="n">
+        <v>2</v>
+      </c>
       <c r="N8" s="25" t="n">
         <f aca="false">$D8*M8</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1153,30 +1194,40 @@
       <c r="D9" s="23" t="n">
         <v>0.1</v>
       </c>
-      <c r="E9" s="24"/>
+      <c r="E9" s="24" t="n">
+        <v>3</v>
+      </c>
       <c r="F9" s="25" t="n">
         <f aca="false">$D9*E9</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="24"/>
+        <v>0.3</v>
+      </c>
+      <c r="G9" s="24" t="n">
+        <v>5</v>
+      </c>
       <c r="H9" s="25" t="n">
         <f aca="false">$D9*G9</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="24" t="n">
+        <v>5</v>
+      </c>
       <c r="J9" s="25" t="n">
         <f aca="false">$D9*I9</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="24" t="n">
+        <v>4</v>
+      </c>
       <c r="L9" s="25" t="n">
         <f aca="false">$D9*K9</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="24"/>
+        <v>0.4</v>
+      </c>
+      <c r="M9" s="24" t="n">
+        <v>5</v>
+      </c>
       <c r="N9" s="25" t="n">
         <f aca="false">$D9*M9</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1189,30 +1240,40 @@
       <c r="D10" s="23" t="n">
         <v>0.1</v>
       </c>
-      <c r="E10" s="24"/>
+      <c r="E10" s="24" t="n">
+        <v>3</v>
+      </c>
       <c r="F10" s="25" t="n">
         <f aca="false">$D10*E10</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="24"/>
+        <v>0.3</v>
+      </c>
+      <c r="G10" s="24" t="n">
+        <v>5</v>
+      </c>
       <c r="H10" s="25" t="n">
         <f aca="false">$D10*G10</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="24" t="n">
+        <v>5</v>
+      </c>
       <c r="J10" s="25" t="n">
         <f aca="false">$D10*I10</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="24" t="n">
+        <v>5</v>
+      </c>
       <c r="L10" s="25" t="n">
         <f aca="false">$D10*K10</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="24" t="n">
+        <v>5</v>
+      </c>
       <c r="N10" s="25" t="n">
         <f aca="false">$D10*M10</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1225,30 +1286,40 @@
       <c r="D11" s="23" t="n">
         <v>0.1</v>
       </c>
-      <c r="E11" s="24"/>
+      <c r="E11" s="24" t="n">
+        <v>4</v>
+      </c>
       <c r="F11" s="25" t="n">
         <f aca="false">$D11*E11</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="24"/>
+        <v>0.4</v>
+      </c>
+      <c r="G11" s="24" t="n">
+        <v>5</v>
+      </c>
       <c r="H11" s="25" t="n">
         <f aca="false">$D11*G11</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="I11" s="24" t="n">
+        <v>5</v>
+      </c>
       <c r="J11" s="25" t="n">
         <f aca="false">$D11*I11</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="24" t="n">
+        <v>5</v>
+      </c>
       <c r="L11" s="25" t="n">
         <f aca="false">$D11*K11</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="M11" s="24" t="n">
+        <v>5</v>
+      </c>
       <c r="N11" s="25" t="n">
         <f aca="false">$D11*M11</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1261,30 +1332,40 @@
       <c r="D12" s="23" t="n">
         <v>0.1</v>
       </c>
-      <c r="E12" s="24"/>
+      <c r="E12" s="24" t="n">
+        <v>2</v>
+      </c>
       <c r="F12" s="25" t="n">
         <f aca="false">$D12*E12</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="24"/>
+        <v>0.2</v>
+      </c>
+      <c r="G12" s="24" t="n">
+        <v>5</v>
+      </c>
       <c r="H12" s="25" t="n">
         <f aca="false">$D12*G12</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="24" t="n">
+        <v>4</v>
+      </c>
       <c r="J12" s="25" t="n">
         <f aca="false">$D12*I12</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="24"/>
+        <v>0.4</v>
+      </c>
+      <c r="K12" s="24" t="n">
+        <v>3</v>
+      </c>
       <c r="L12" s="25" t="n">
         <f aca="false">$D12*K12</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="24"/>
+        <v>0.3</v>
+      </c>
+      <c r="M12" s="24" t="n">
+        <v>5</v>
+      </c>
       <c r="N12" s="25" t="n">
         <f aca="false">$D12*M12</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1297,30 +1378,40 @@
       <c r="D13" s="23" t="n">
         <v>0.1</v>
       </c>
-      <c r="E13" s="24"/>
+      <c r="E13" s="24" t="n">
+        <v>3</v>
+      </c>
       <c r="F13" s="25" t="n">
         <f aca="false">$D13*E13</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="24"/>
+        <v>0.3</v>
+      </c>
+      <c r="G13" s="24" t="n">
+        <v>5</v>
+      </c>
       <c r="H13" s="25" t="n">
         <f aca="false">$D13*G13</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="24" t="n">
+        <v>5</v>
+      </c>
       <c r="J13" s="25" t="n">
         <f aca="false">$D13*I13</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="24" t="n">
+        <v>5</v>
+      </c>
       <c r="L13" s="25" t="n">
         <f aca="false">$D13*K13</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="M13" s="24" t="n">
+        <v>5</v>
+      </c>
       <c r="N13" s="25" t="n">
         <f aca="false">$D13*M13</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1333,30 +1424,40 @@
       <c r="D14" s="23" t="n">
         <v>0.05</v>
       </c>
-      <c r="E14" s="24"/>
+      <c r="E14" s="24" t="n">
+        <v>3</v>
+      </c>
       <c r="F14" s="25" t="n">
         <f aca="false">$D14*E14</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="24"/>
+        <v>0.15</v>
+      </c>
+      <c r="G14" s="24" t="n">
+        <v>5</v>
+      </c>
       <c r="H14" s="25" t="n">
         <f aca="false">$D14*G14</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="24"/>
+        <v>0.25</v>
+      </c>
+      <c r="I14" s="24" t="n">
+        <v>4</v>
+      </c>
       <c r="J14" s="25" t="n">
         <f aca="false">$D14*I14</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="24"/>
+        <v>0.2</v>
+      </c>
+      <c r="K14" s="24" t="n">
+        <v>5</v>
+      </c>
       <c r="L14" s="25" t="n">
         <f aca="false">$D14*K14</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="24"/>
+        <v>0.25</v>
+      </c>
+      <c r="M14" s="24" t="n">
+        <v>5</v>
+      </c>
       <c r="N14" s="25" t="n">
         <f aca="false">$D14*M14</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1386,27 +1487,27 @@
       <c r="E16" s="11"/>
       <c r="F16" s="25" t="n">
         <f aca="false">SUM(F6:F14)</f>
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="25" t="n">
         <f aca="false">SUM(H6:H14)</f>
-        <v>0.5</v>
+        <v>4.65</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="25" t="n">
         <f aca="false">SUM(J6:J14)</f>
-        <v>0.5</v>
+        <v>4.55</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="25" t="n">
         <f aca="false">SUM(L6:L14)</f>
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="25" t="n">
         <f aca="false">SUM(N6:N14)</f>
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1433,7 +1534,7 @@
       <c r="E18" s="30"/>
       <c r="F18" s="31" t="n">
         <f aca="false">RANK(F16,($F16~$H16~$J16~$L16~N16))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G18" s="32"/>
       <c r="H18" s="31" t="n">
@@ -1443,12 +1544,12 @@
       <c r="I18" s="32"/>
       <c r="J18" s="31" t="n">
         <f aca="false">RANK(J16,($F16~$H16~$J16~$L16~N16))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K18" s="32"/>
       <c r="L18" s="31" t="n">
         <f aca="false">RANK(L16,($F16~$H16~$J16~$L16~N16))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M18" s="32"/>
       <c r="N18" s="31" t="n">
